--- a/강려명_report.xlsx
+++ b/강려명_report.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\boyu571_github\00_SKKU_Spring_24\00. ML and Economic Forecasting\ML_and_Economic_Forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D90889-748D-48B3-8676-D218DF77FDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D996B49F-CC7A-4AED-91A2-5C32CC693546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="error_rmse" sheetId="1" r:id="rId1"/>
-    <sheet name="error_mae" sheetId="2" r:id="rId2"/>
+    <sheet name="part1" sheetId="1" r:id="rId1"/>
+    <sheet name="part2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="23">
   <si>
     <t/>
   </si>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -1394,205 +1394,731 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB979803-0550-4D56-A4C0-F67E581299CE}">
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" style="11"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C3" s="14">
+        <v>4.2046780333886502E-3</v>
+      </c>
+      <c r="D3" s="14">
+        <v>5.3008568539480204E-3</v>
+      </c>
+      <c r="E3" s="14">
+        <v>4.4863406688412403E-3</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3.9665419825275798E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3.4293099824969199E-3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3.5072406077000201E-3</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3.4139600995573101E-3</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3.4987434926409202E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3.9706023239438597E-3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>3.85999886252588E-3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4.6025983787842204E-3</v>
+      </c>
+      <c r="F5" s="15">
+        <v>4.0938636550095003E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3.74158586812904E-3</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3.38965019382791E-3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4.6234240513930496E-3</v>
+      </c>
+      <c r="F6" s="15">
+        <v>4.14948638140259E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14">
+        <v>3.3862422851540798E-3</v>
+      </c>
+      <c r="D7" s="14">
+        <v>3.6626148059757399E-3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4.0871085066085198E-3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>3.5443856050993401E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14">
+        <v>3.4574893500927098E-3</v>
+      </c>
+      <c r="D8" s="14">
+        <v>3.6067416599670598E-3</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3.70239638221015E-3</v>
+      </c>
+      <c r="F8" s="15">
+        <v>3.5419430519442398E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3.06265815746143E-3</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3.2725246456550301E-3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3.40012748613143E-3</v>
+      </c>
+      <c r="F9" s="15">
+        <v>3.3529660911506901E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3.3159661653715299E-3</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3.7645537859526401E-3</v>
+      </c>
+      <c r="E10" s="14">
+        <v>3.81502154323635E-3</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3.44944121056535E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14">
+        <v>3.07814830628729E-3</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3.4439187651856898E-3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3.4045727012273499E-3</v>
+      </c>
+      <c r="F11" s="15">
+        <v>3.3071180538940502E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2.73349659164007E-3</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2.96143789662496E-3</v>
+      </c>
+      <c r="E12" s="16">
+        <v>3.1808497356620499E-3</v>
+      </c>
+      <c r="F12" s="17">
+        <v>3.1112985210476601E-3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="14">
         <v>3.3355808891612402E-3</v>
       </c>
-      <c r="C2">
+      <c r="D16" s="14">
         <v>4.0612390735206101E-3</v>
       </c>
-      <c r="D2">
+      <c r="E16" s="14">
         <v>3.5963755863766701E-3</v>
       </c>
-      <c r="E2">
+      <c r="F16" s="15">
         <v>3.2525134219665102E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="C17" s="14">
         <v>2.8102487330317698E-3</v>
       </c>
-      <c r="C3">
+      <c r="D17" s="14">
         <v>2.7664792267919902E-3</v>
       </c>
-      <c r="D3">
+      <c r="E17" s="14">
         <v>2.68558845804192E-3</v>
       </c>
-      <c r="E3">
+      <c r="F17" s="15">
         <v>2.9518322483518102E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="C18" s="14">
         <v>3.1154125965144898E-3</v>
       </c>
-      <c r="C4">
+      <c r="D18" s="14">
         <v>3.0796960534901102E-3</v>
       </c>
-      <c r="D4">
+      <c r="E18" s="14">
         <v>3.6503651678811999E-3</v>
       </c>
-      <c r="E4">
+      <c r="F18" s="15">
         <v>3.2686149538262502E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="C19" s="14">
         <v>2.9822303142569202E-3</v>
       </c>
-      <c r="C5">
+      <c r="D19" s="14">
         <v>2.8019308184550002E-3</v>
       </c>
-      <c r="D5">
+      <c r="E19" s="14">
         <v>3.6295757499371401E-3</v>
       </c>
-      <c r="E5">
+      <c r="F19" s="15">
         <v>3.2757703256519502E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="C20" s="14">
         <v>2.7611556971042501E-3</v>
       </c>
-      <c r="C6">
+      <c r="D20" s="14">
         <v>3.0601949674684899E-3</v>
       </c>
-      <c r="D6">
+      <c r="E20" s="14">
         <v>3.2451768657665099E-3</v>
       </c>
-      <c r="E6">
+      <c r="F20" s="15">
         <v>2.83214803897242E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="C21" s="14">
         <v>2.8217953742203702E-3</v>
       </c>
-      <c r="C7">
+      <c r="D21" s="14">
         <v>2.9564399720943902E-3</v>
       </c>
-      <c r="D7">
+      <c r="E21" s="14">
         <v>2.9646093671259902E-3</v>
       </c>
-      <c r="E7">
+      <c r="F21" s="15">
         <v>2.8333188242441899E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="C22" s="14">
         <v>2.46398870661377E-3</v>
       </c>
-      <c r="C8">
+      <c r="D22" s="14">
         <v>2.64960898695324E-3</v>
       </c>
-      <c r="D8">
+      <c r="E22" s="14">
         <v>2.72109101374896E-3</v>
       </c>
-      <c r="E8">
+      <c r="F22" s="15">
         <v>2.6290249263948798E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="C23" s="14">
         <v>2.6728065695676901E-3</v>
       </c>
-      <c r="C9">
+      <c r="D23" s="14">
         <v>2.91690452696345E-3</v>
       </c>
-      <c r="D9">
+      <c r="E23" s="14">
         <v>3.0751022416005401E-3</v>
       </c>
-      <c r="E9">
+      <c r="F23" s="15">
         <v>2.8270295553352899E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="C24" s="14">
         <v>2.4541112833154498E-3</v>
       </c>
-      <c r="C10">
+      <c r="D24" s="14">
         <v>2.7584462277682898E-3</v>
       </c>
-      <c r="D10">
+      <c r="E24" s="14">
         <v>2.74211666880752E-3</v>
       </c>
-      <c r="E10">
+      <c r="F24" s="15">
         <v>2.6616333605654799E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="C25" s="16">
         <v>2.22129726054782E-3</v>
       </c>
-      <c r="C11">
+      <c r="D25" s="16">
         <v>2.3700204960905801E-3</v>
       </c>
-      <c r="D11">
+      <c r="E25" s="16">
         <v>2.5479515222008599E-3</v>
       </c>
-      <c r="E11">
+      <c r="F25" s="17">
         <v>2.4130426816649001E-3</v>
       </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5.3201621093007797E-6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3.78745187797798E-8</v>
+      </c>
+      <c r="E28" s="7">
+        <v>5.4564715978981602E-5</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1.50164516844601E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7">
+        <v>7.1295601542976402E-6</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1.1973805645970001E-3</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.25676717403487098</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1.52008890074305E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1.02547654627584E-5</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1.0578992341584799E-2</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2.13818059808958E-4</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1.4600598190737399E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1.8051507300300299E-5</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1.76988921831212E-2</v>
+      </c>
+      <c r="E31" s="7">
+        <v>5.6168854651000803E-5</v>
+      </c>
+      <c r="F31" s="9">
+        <v>4.2310996120794198E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4.0182116459738902E-5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1.2943597291050499E-7</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2.2123420975281799E-3</v>
+      </c>
+      <c r="F32" s="9">
+        <v>3.0885055407524901E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7">
+        <v>5.6461508133266598E-7</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2.1582164451885399E-7</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1.3279781774034799E-4</v>
+      </c>
+      <c r="F33" s="9">
+        <v>9.6410088950923804E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1.10536746940208E-3</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2.8981593690161901E-5</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2.2648719453116702E-2</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2.6557863764325199E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="8">
+        <v>6.21261337774084E-3</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1.56445457972983E-3</v>
+      </c>
+      <c r="E35" s="8">
+        <v>3.2495080519736098E-3</v>
+      </c>
+      <c r="F35" s="9">
+        <v>5.6549758235448402E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="18">
+        <v>1.4122023788389899E-2</v>
+      </c>
+      <c r="D36" s="18">
+        <v>1.19453703789836E-4</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0.14211524402497899</v>
+      </c>
+      <c r="F36" s="19">
+        <v>2.15508162925803E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="20">
+        <v>0.126</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0.49020000000000002</v>
+      </c>
+      <c r="E49" s="20">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="F49" s="21">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="H49" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>